--- a/target/07_qq_municipalities.xlsx
+++ b/target/07_qq_municipalities.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <r>
       <rPr>

--- a/target/07_qq_municipalities.xlsx
+++ b/target/07_qq_municipalities.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
     <r>
       <rPr>

--- a/target/07_qq_municipalities.xlsx
+++ b/target/07_qq_municipalities.xlsx
@@ -29,7 +29,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">De manière générale, dites-moi si </t>
+      <t xml:space="preserve">بصورة عام  من فضلك اخبرني الى اي مدى انت </t>
     </r>
     <r>
       <rPr>
@@ -39,16 +39,16 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">à quel point</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> vous êtes satisfait avec les transports publics là où vous vivez. </t>
+      <t xml:space="preserve">راض عن</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> النقل العام في مكان سكنك</t>
     </r>
   </si>
   <si>
